--- a/TC-RS.xlsx
+++ b/TC-RS.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9104CFDA-E070-45FD-8223-199B7DC7287A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A22942-B4F4-42A0-923D-91B799BF50B7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CampCreation" sheetId="1" r:id="rId1"/>
     <sheet name="Responses" sheetId="2" r:id="rId2"/>
     <sheet name="Reports" sheetId="3" r:id="rId3"/>
     <sheet name="CustActReport" sheetId="4" r:id="rId4"/>
+    <sheet name="LivePreview" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -281,6 +282,42 @@
   </si>
   <si>
     <t>Customer Activity Reports page should be display, and campaign name.</t>
+  </si>
+  <si>
+    <t>id:54211</t>
+  </si>
+  <si>
+    <t>Verify the Brand campaign scenarios - Live preview</t>
+  </si>
+  <si>
+    <t>Search the Scheduled Campaign Name in search bar of Scheduled Campaign section.</t>
+  </si>
+  <si>
+    <t>User should be able to search the Scheduled campaign using the search bar of Scheduled campaign and searched campaign should display.</t>
+  </si>
+  <si>
+    <t>Click on Live Preview link of Searched Scheduled Campaign.</t>
+  </si>
+  <si>
+    <t>Live Previeew section should be display and campaign.</t>
+  </si>
+  <si>
+    <t>Verify the "Give a review" Button text, Check Whether Personalization tokens replaced with Respective values, Logo(If added) and Brand name whether displaying or not  in Email view section of Live Preview Page.</t>
+  </si>
+  <si>
+    <t>"Give a Review" button should display in Respective language, Logo(If added) and Brand Name should Display in Email view section of Live Preview.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "Give a Review" button for Navigating to "Feed Back" Section of "Live Preview" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "Send Feed Back" Button for Navigating to "Thank you" Section of "Live Preview" </t>
+  </si>
+  <si>
+    <t>"Feed Back" Section Should be display on "Live Preview" in Respective Campaign Language, Logo(If added) and Brand Name Should be display.</t>
+  </si>
+  <si>
+    <t>"Thank you" section should be display on "Live Preview" in Respective Language, Logo(If added) and Brand Name Should be display.</t>
   </si>
 </sst>
 </file>
@@ -979,7 +1016,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3834F5-F8E4-432F-B054-DCFBDE612648}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,4 +1335,118 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C087E27-36FA-4201-A2EF-223704CA841E}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="46.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TC-RS.xlsx
+++ b/TC-RS.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CB81EC-FA57-4C98-891B-FE30D83ABF35}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EBE9B0-EB9A-47CD-8076-012CD7BDDB4C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="5895" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14070" windowHeight="5895" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CampCreation" sheetId="1" r:id="rId1"/>
     <sheet name="Responses" sheetId="2" r:id="rId2"/>
     <sheet name="Reports" sheetId="3" r:id="rId3"/>
     <sheet name="CustActReport" sheetId="4" r:id="rId4"/>
-    <sheet name="LivePreview" sheetId="6" r:id="rId5"/>
+    <sheet name="LivePreview&amp;Delete" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -44,9 +44,6 @@
     <t>id:48167</t>
   </si>
   <si>
-    <t>Verify the Brand campaign scenarios</t>
-  </si>
-  <si>
     <t>Login to AC1</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>"Create New Campaigns" Page should display</t>
   </si>
   <si>
-    <t>"Brand Campaign" should be selected as Campaign type</t>
-  </si>
-  <si>
     <t>Select a Campaign language as "English" From the Dropdown list.</t>
   </si>
   <si>
@@ -86,12 +80,6 @@
     <t>"Existing campaign tool tip" should be display in English.</t>
   </si>
   <si>
-    <t>verify that "Brand" Text Field should display in campaign info section</t>
-  </si>
-  <si>
-    <t>"Brand" Text Field should display in Campaign info section and user able to enter "Campaign Name", "Brand Name", and "Description"</t>
-  </si>
-  <si>
     <t>Verify that user able to upload a Logo by clicking on "Choose" button and should able to enter the "Sender Name" in Text Box.</t>
   </si>
   <si>
@@ -128,9 +116,6 @@
     <t>Verify that "Cancel", "Save Draft", and "Create Campaign" buttons are enabled and Check user able to click on "Create campaign" button.</t>
   </si>
   <si>
-    <t>Click on "Live Preview" button of scheduled campaign.</t>
-  </si>
-  <si>
     <t>Click "Close Preview" button.</t>
   </si>
   <si>
@@ -141,12 +126,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Live Preview page "Feed Back" Section should display with proper data.</t>
-  </si>
-  <si>
-    <t>Live Preview page "Thank you" Section should display with proper data.</t>
   </si>
   <si>
     <t>id:54703</t>
@@ -302,34 +281,61 @@
     <t>Navigate to Campaigns Page : click campaigns under "Customer Feed Back" Tab</t>
   </si>
   <si>
+    <t>user should be able to enter the data in "Subject", "Intro-Banner", "Body Copy", and "Signature".</t>
+  </si>
+  <si>
+    <t>User should be able to verify the personalisation tool tip display in English Language.</t>
+  </si>
+  <si>
+    <t>Verify that User able to select a "Date and Time" from Scheduled section of Date picker and Time Dropdown button.</t>
+  </si>
+  <si>
+    <t>Verify that Created campaign displaying in "Scheduled campaign" section.</t>
+  </si>
+  <si>
+    <t>"Created campaign" should be display in "Scheduled campaign" section, "Edit", "Live Preview", and "Delete" buttons are enabled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Delete campaign" confirmation pop up should display. and </t>
+  </si>
+  <si>
+    <t>id:48066</t>
+  </si>
+  <si>
+    <t>Verify the location campaign scenarios</t>
+  </si>
+  <si>
+    <t>Select a Campaign type "Location" from the Dropdown list.</t>
+  </si>
+  <si>
+    <t>"Location" should be selected as Campaign type</t>
+  </si>
+  <si>
+    <t>verify that "Location" Text Field should display in campaign info section</t>
+  </si>
+  <si>
+    <t>"Location" Text Field should display in Campaign info section and user able to enter "Campaign Name" and "Description. And should able to select Location from auto suggesstion list.</t>
+  </si>
+  <si>
+    <t>Enter the Partial/Full location name in Location Text Field and able to select the location from Auto Suggesstion List.</t>
+  </si>
+  <si>
+    <t>User should able to Enter the Location name in "Location" Text Field and should able to select the Location From Auto Suggession List.</t>
+  </si>
+  <si>
+    <t>Verify the Brand campaign scenarios</t>
+  </si>
+  <si>
     <t>Select a Campaign type "Brand" from the Dropdown list.</t>
   </si>
   <si>
-    <t>user should be able to enter the data in "Subject", "Intro-Banner", "Body Copy", and "Signature".</t>
-  </si>
-  <si>
-    <t>User should be able to verify the personalisation tool tip display in English Language.</t>
-  </si>
-  <si>
-    <t>Verify that User able to select a "Date and Time" from Scheduled section of Date picker and Time Dropdown button.</t>
-  </si>
-  <si>
-    <t>Verify that Created campaign displaying in "Scheduled campaign" section.</t>
-  </si>
-  <si>
-    <t>"Created campaign" should be display in "Scheduled campaign" section, "Edit", "Live Preview", and "Delete" buttons are enabled.</t>
-  </si>
-  <si>
-    <t>"Live Preview" page should be display."Email View" should display with proper data.</t>
-  </si>
-  <si>
-    <t>click on "Give a Review button" of Live Preview page</t>
-  </si>
-  <si>
-    <t>Click on "Send Feed Back" button of scheduled campaign.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Delete campaign" confirmation pop up should display. and </t>
+    <t>"Brand Campaign" should be selected as Campaign type</t>
+  </si>
+  <si>
+    <t>verify that "Brand" Text Field should display in campaign info section</t>
+  </si>
+  <si>
+    <t>"Brand" Text Field should display in Campaign info section and user able to enter "Campaign Name", "Brand Name", and "Description"</t>
   </si>
 </sst>
 </file>
@@ -661,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -707,7 +713,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -716,7 +722,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -725,10 +731,10 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -736,10 +742,10 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -747,10 +753,10 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -758,10 +764,10 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -769,10 +775,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -780,36 +786,36 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -817,49 +823,49 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -867,36 +873,36 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -904,110 +910,259 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1052,80 +1207,80 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1170,80 +1325,80 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1288,85 +1443,85 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1376,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C087E27-36FA-4201-A2EF-223704CA841E}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,88 +1566,112 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/TC-RS.xlsx
+++ b/TC-RS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EBE9B0-EB9A-47CD-8076-012CD7BDDB4C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DCB470-6A4E-44ED-8403-28B11C11BBAE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14070" windowHeight="5895" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="5895" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CampCreation" sheetId="1" r:id="rId1"/>
@@ -140,12 +140,6 @@
     <t>Export should properly download the data in CSV format and the column names are Flagged, Campaign name, Customer email, Date or time submitted, rating and review </t>
   </si>
   <si>
-    <t>Verify that the Data is displayed in Average Score, Overall Star Rating Click through rate  </t>
-  </si>
-  <si>
-    <t>All the reports should be displayed </t>
-  </si>
-  <si>
     <t>Search the Processed Campaign Name in search bar of Processed Campaign section.</t>
   </si>
   <si>
@@ -336,6 +330,12 @@
   </si>
   <si>
     <t>"Brand" Text Field should display in Campaign info section and user able to enter "Campaign Name", "Brand Name", and "Description"</t>
+  </si>
+  <si>
+    <t>Verify that the Data is displayed in Average Score, Overall Star Rating with Table data.  </t>
+  </si>
+  <si>
+    <t>All the reports should be displayed and should match with the UI Table data.</t>
   </si>
 </sst>
 </file>
@@ -667,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -742,7 +742,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -764,10 +764,10 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -799,10 +799,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>33</v>
@@ -815,7 +815,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -849,10 +849,10 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>33</v>
@@ -865,7 +865,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -886,7 +886,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
@@ -923,23 +923,41 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="1"/>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
@@ -947,39 +965,43 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -987,10 +1009,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -998,80 +1020,84 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>33</v>
@@ -1081,86 +1107,60 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1174,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EA1EB5-B96C-435B-AF55-228DB5DCC33C}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,29 +1239,29 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1274,13 +1274,13 @@
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1359,46 +1359,46 @@
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1477,51 +1477,51 @@
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1566,10 +1566,10 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1600,54 +1600,54 @@
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1663,15 +1663,15 @@
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/TC-RS.xlsx
+++ b/TC-RS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DCB470-6A4E-44ED-8403-28B11C11BBAE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A35F0F-B243-458F-95B3-32388D79CF41}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="5895" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="5895" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CampCreation" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>Click on Responses link of Searched Processed Campaign.</t>
-  </si>
-  <si>
-    <t>Responses page should be display and campaign name selected as default and Campaign "From Date" should be Campaign Scheduled date and "To Date" Should be Todays date.</t>
   </si>
   <si>
     <t>id:54704</t>
@@ -332,10 +329,19 @@
     <t>"Brand" Text Field should display in Campaign info section and user able to enter "Campaign Name", "Brand Name", and "Description"</t>
   </si>
   <si>
-    <t>Verify that the Data is displayed in Average Score, Overall Star Rating with Table data.  </t>
-  </si>
-  <si>
-    <t>All the reports should be displayed and should match with the UI Table data.</t>
+    <t>Verify that the Data is displayed in Average Score, Overall Star Rating section.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responses page should be display. </t>
+  </si>
+  <si>
+    <t>Campaign name selected as default and Campaign "From Date" should be Campaign Scheduled date and "To Date" Should be Todays date.</t>
+  </si>
+  <si>
+    <t>Verify that the Responses Page UI Table Data should match with Downloaded Table Data.</t>
+  </si>
+  <si>
+    <t>All the reports should be displayed and Downloaded Table data should match with the UI Table data.</t>
   </si>
 </sst>
 </file>
@@ -667,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -742,7 +748,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -764,10 +770,10 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -799,10 +805,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>33</v>
@@ -815,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -849,10 +855,10 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>33</v>
@@ -865,7 +871,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -886,7 +892,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
@@ -923,32 +929,30 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>85</v>
-      </c>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
@@ -956,7 +960,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -965,32 +969,30 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -998,10 +1000,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1009,10 +1011,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1020,71 +1022,69 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>33</v>
@@ -1094,10 +1094,10 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>33</v>
@@ -1107,60 +1107,73 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1172,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EA1EB5-B96C-435B-AF55-228DB5DCC33C}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,7 +1252,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1250,37 +1263,45 @@
         <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>69</v>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1325,10 +1346,10 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1365,40 +1386,40 @@
         <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1443,10 +1464,10 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1483,45 +1504,45 @@
         <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1566,10 +1587,10 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1600,54 +1621,54 @@
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1663,15 +1684,15 @@
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/TC-RS.xlsx
+++ b/TC-RS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A35F0F-B243-458F-95B3-32388D79CF41}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BAC25D-17A8-4736-B4C8-55B194019871}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="5895" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="5895" tabRatio="726" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CampCreation" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Reports" sheetId="3" r:id="rId3"/>
     <sheet name="CustActReport" sheetId="4" r:id="rId4"/>
     <sheet name="LivePreview&amp;Delete" sheetId="6" r:id="rId5"/>
+    <sheet name="DraftCamp" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -342,6 +343,42 @@
   </si>
   <si>
     <t>All the reports should be displayed and Downloaded Table data should match with the UI Table data.</t>
+  </si>
+  <si>
+    <t>Verify the Location campaign scenarios - Live preview</t>
+  </si>
+  <si>
+    <t>id:54717</t>
+  </si>
+  <si>
+    <t>Verify the Brand campaign scenarios - Draft</t>
+  </si>
+  <si>
+    <t>id:54202</t>
+  </si>
+  <si>
+    <t>"Cancel", "Save Draft", and "Create Campaign" buttons should be enabled and User should be able to click on "Save Draft" button and "Save Draft successful" pop up should be display.</t>
+  </si>
+  <si>
+    <t>Verify that "Cancel", "Save Draft", and "Create Campaign" buttons are enabled and Check user able to click on "Save Draft" button.</t>
+  </si>
+  <si>
+    <t>Verify that Created campaign displaying in "Draft campaign" section.</t>
+  </si>
+  <si>
+    <t>"Created campaign" should be display in "Draft" section, "Edit", and "Delete" buttons are enabled.</t>
+  </si>
+  <si>
+    <t>Verify the Location campaign scenarios - Draft campaign</t>
+  </si>
+  <si>
+    <t>id:54712</t>
+  </si>
+  <si>
+    <t>"Location Campaign" should be selected as Campaign type</t>
+  </si>
+  <si>
+    <t>"Location" Text Field should display in Campaign info section and user able to enter "Campaign Name", "Location Name", and "Description"</t>
   </si>
 </sst>
 </file>
@@ -675,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C087E27-36FA-4201-A2EF-223704CA841E}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,6 +1723,9 @@
       <c r="D13" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
@@ -1693,6 +1733,626 @@
       </c>
       <c r="D14" s="1" t="s">
         <v>70</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9617CC-FEA7-4413-B6E7-804BCBCCAE12}">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="59" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/TC-RS.xlsx
+++ b/TC-RS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BAC25D-17A8-4736-B4C8-55B194019871}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2066E6-75BC-4934-BB0E-50826D31D401}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="5895" tabRatio="726" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -379,6 +379,39 @@
   </si>
   <si>
     <t>"Location" Text Field should display in Campaign info section and user able to enter "Campaign Name", "Location Name", and "Description"</t>
+  </si>
+  <si>
+    <t>Verify the MLC campaign scenarios</t>
+  </si>
+  <si>
+    <t>id:54917</t>
+  </si>
+  <si>
+    <t>Select a Campaign type "MLC" from the Dropdown list.</t>
+  </si>
+  <si>
+    <t>"MLC" should be selected as Campaign type</t>
+  </si>
+  <si>
+    <t>verify that "Location" Text Field should display in campaign info section with Multi select Location List Box.</t>
+  </si>
+  <si>
+    <t>"MLC" Text Field should display with Multi Select list box in Campaign info section and user able to enter "Campaign Name" and "Description" in Campaign info section.</t>
+  </si>
+  <si>
+    <t>Verify that "Add", "Add All", "Remove", and "Remove All" Buttons tool tips.</t>
+  </si>
+  <si>
+    <t>"Add", "Add All", "Remove", and "Remove All" Buttons tool tips should display in Respective Languages.</t>
+  </si>
+  <si>
+    <t>sdssd</t>
+  </si>
+  <si>
+    <t>sfsf</t>
+  </si>
+  <si>
+    <t>fdf</t>
   </si>
 </sst>
 </file>
@@ -710,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,6 +1244,245 @@
         <v>81</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1591,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C087E27-36FA-4201-A2EF-223704CA841E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,16 +1903,25 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1863,7 +2144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9617CC-FEA7-4413-B6E7-804BCBCCAE12}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>

--- a/TC-RS.xlsx
+++ b/TC-RS.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2066E6-75BC-4934-BB0E-50826D31D401}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0FCBC0-D796-4D60-8A80-5AA65FB1FA61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="5895" tabRatio="726" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="5895" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CampCreation" sheetId="1" r:id="rId1"/>
-    <sheet name="Responses" sheetId="2" r:id="rId2"/>
-    <sheet name="Reports" sheetId="3" r:id="rId3"/>
-    <sheet name="CustActReport" sheetId="4" r:id="rId4"/>
-    <sheet name="LivePreview&amp;Delete" sheetId="6" r:id="rId5"/>
-    <sheet name="DraftCamp" sheetId="7" r:id="rId6"/>
+    <sheet name="EditCamp" sheetId="9" r:id="rId2"/>
+    <sheet name="Responses" sheetId="2" r:id="rId3"/>
+    <sheet name="Reports" sheetId="3" r:id="rId4"/>
+    <sheet name="CustActReport" sheetId="4" r:id="rId5"/>
+    <sheet name="LivePreview&amp;Delete" sheetId="6" r:id="rId6"/>
+    <sheet name="DraftCamp" sheetId="7" r:id="rId7"/>
+    <sheet name="ProcessedCamp" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="191">
   <si>
     <t>ID</t>
   </si>
@@ -204,12 +206,6 @@
     <t>User able to download the CSV with the same details in the table </t>
   </si>
   <si>
-    <t>Check that there won't be any line breaks in the CSV for the added comments   </t>
-  </si>
-  <si>
-    <t>There shouldn't be any line breaks in the downloaded CSV  </t>
-  </si>
-  <si>
     <t>Click on Customer Activity Report link of Searched Processed Campaign.</t>
   </si>
   <si>
@@ -412,6 +408,220 @@
   </si>
   <si>
     <t>fdf</t>
+  </si>
+  <si>
+    <t>Check that Downloaded CSV data should match with the Customer activity Report's UI Table Data</t>
+  </si>
+  <si>
+    <t>Downloaded CSV data should match with the Customer activity Report's UI Table Data</t>
+  </si>
+  <si>
+    <t>id:54908</t>
+  </si>
+  <si>
+    <t>Verify the Location campaign scenarios - Customer Activity page</t>
+  </si>
+  <si>
+    <t>id:54930</t>
+  </si>
+  <si>
+    <t>Verify the MLC campaign scenarios - Customer Activity page</t>
+  </si>
+  <si>
+    <t>id:54205</t>
+  </si>
+  <si>
+    <t>Verify the Brand campaign scenarios - Update/Edit</t>
+  </si>
+  <si>
+    <t>Verify if Edit button is enabled when the campaign is scheduled </t>
+  </si>
+  <si>
+    <t>Edit button shall be displayed as enabled </t>
+  </si>
+  <si>
+    <t>Verify if Edit button is changed to Reschedule for failed campaigns  </t>
+  </si>
+  <si>
+    <t>Reschedule button is displayed for the failed   campaigns</t>
+  </si>
+  <si>
+    <t>Verify Update Campaign, Live Preview and Cancel button should be displayed when user clicks on Edit on scheduled campaign </t>
+  </si>
+  <si>
+    <t>Update campaign,"Live Preview" and "Cancel" button shall be displayed  </t>
+  </si>
+  <si>
+    <t>Verify if user is allowed to update all the fields </t>
+  </si>
+  <si>
+    <t>User shall be able to update all the fields.</t>
+  </si>
+  <si>
+    <t>Verify if user is able to download Template </t>
+  </si>
+  <si>
+    <t>User shall be able to download the "Template"  </t>
+  </si>
+  <si>
+    <t>Verify if user is able to upload email using the template </t>
+  </si>
+  <si>
+    <t>User shall be able to upload email using the template</t>
+  </si>
+  <si>
+    <t>Verify personalization of tokens by entering the Body copy if tokens are getting replaced with First name and Last name in Live preview and Email Template Email Template replaced with First name and Last name in Live preview and Email Template  </t>
+  </si>
+  <si>
+    <t>1) Personalization of Tokens shall be replaced with the "First Name" and "Last name in Live preview
+2) Email Template shall be replaced with "First name" and "Last Last name" in Live preview and Email Template.  </t>
+  </si>
+  <si>
+    <t>Verify in the email template, if user updated a logo in update campaign then updated campaign should be displayed in Email Template </t>
+  </si>
+  <si>
+    <t>1) User shall be able to update the logo in updated campaign
+2) Updated campaign shall be displayed in "Email Template" </t>
+  </si>
+  <si>
+    <t>Searched Scheduled campaign's "Edit", "Live Preview" and "Delete" buttons should be enabled. If searched campaign is a failed campaign then "Edit" button should be replaced with "Reschedule" button.</t>
+  </si>
+  <si>
+    <t>Veify that Scheduled campaign's "Edit", "Live Preview" and "Delete" buttons are enabled. If searched campaign is a failed campaign then check the "Edit" button should replace with "Reschedule" button.</t>
+  </si>
+  <si>
+    <t>Click on "Edit/Reschedule(if failed camp)" button</t>
+  </si>
+  <si>
+    <t>Scheduled campaign should be display in editable mode.</t>
+  </si>
+  <si>
+    <t>Verify "Contact info" section displaying as we selcted "Brand" as campaign type and Contact info tool tip is display in respective language.</t>
+  </si>
+  <si>
+    <t>Verify that "Update Campaign" button is disabled when User not edited any field in "Edit Scheduled Campaign" page.</t>
+  </si>
+  <si>
+    <t>Update Campaign button should be disabled when User not edited any field in "Edit Scheduled Campaign" page.</t>
+  </si>
+  <si>
+    <t>Verify that User is able to upload the edited "Email Template"(By Replacing the Token values with older values) and Campaign Logo.</t>
+  </si>
+  <si>
+    <t>User should be able to Upload the Latest "Email Template" and Campaign Logo</t>
+  </si>
+  <si>
+    <t>Verify that User is able to change the campaign Schedule time</t>
+  </si>
+  <si>
+    <t>User should be able to change the campaign schedule time.</t>
+  </si>
+  <si>
+    <t>Verify that "Update Campaign" button is Enabled when User edited atleast 1 field in "Edit Scheduled Campaign" page.</t>
+  </si>
+  <si>
+    <t>"Update Campaign" button should be enabled.</t>
+  </si>
+  <si>
+    <t>Click on "Update Campaign" button</t>
+  </si>
+  <si>
+    <t>"Update Campaign" pop up should be display.</t>
+  </si>
+  <si>
+    <t>Click on "View all Campaigns" button in "Update Campaign" pop up</t>
+  </si>
+  <si>
+    <t>Page should be Redirect to Campaign's page</t>
+  </si>
+  <si>
+    <t>Click on "Live Preview" button of Edited Scheduled campaign</t>
+  </si>
+  <si>
+    <t>"Live Preview" page should be display.</t>
+  </si>
+  <si>
+    <t>Verify personalization of tokens of entered in the Subject, Banner, Body Copy and Thank you Fields if tokens are getting replaced with First name and Last name in Live preview.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personalization of Tokens shall be replaced with the "First Name" and "Last name in Live preview
+</t>
+  </si>
+  <si>
+    <t>id:54715</t>
+  </si>
+  <si>
+    <t>Verify the Location campaign scenarios - Update/Edit campaign</t>
+  </si>
+  <si>
+    <t>Pre-requisite: User should be logged into TransparenSee and should have access to Review Solicitation. @ACcount_Name</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Verify if Edit button is enabled when the campaign is scheduled  </t>
+  </si>
+  <si>
+    <t>Verify if Edit button is disabled with the Campaign is processing (Scheduled time)  </t>
+  </si>
+  <si>
+    <t>Edit button is displayed as "disabled"  </t>
+  </si>
+  <si>
+    <t>Verify if Edit button is changed to Reschedule for failed campaigns   </t>
+  </si>
+  <si>
+    <t>Verify if user is allowed to update all the fields including scheduled time </t>
+  </si>
+  <si>
+    <t>User shall be able to update all the fields including scheduled time</t>
+  </si>
+  <si>
+    <t>Verify if user is able to download Template  </t>
+  </si>
+  <si>
+    <t>User shall be able to download the "Template" </t>
+  </si>
+  <si>
+    <t>Verify if user is able to upload email using the template </t>
+  </si>
+  <si>
+    <t>User shall be able to upload email using the template </t>
+  </si>
+  <si>
+    <t>Verify personalization of tokens by entering the Body copy if tokens are getting replaced with First name and Last name in Live preview and Email Template replaced with First name and Last name in Live preview and Email Template  </t>
+  </si>
+  <si>
+    <t>1) Personalization of Tokens shall be replaced with the "First Name" and "Last name in Live preview2)Email Template shall be replaced with "First name" and "Last Last name" in Live preview and Email Template.</t>
+  </si>
+  <si>
+    <t>Verify if user added the logo during campaign creation same logo is getting displayed  </t>
+  </si>
+  <si>
+    <t>1)User shall be able to add the logo.
+2)Added logo shall be displayed. </t>
+  </si>
+  <si>
+    <t>Verify message highlighted in yellow is displayed when user clicks on "This campaign has been saved in Draft Mode.
+This campaign can be confirmed and scheduled by pressing the 'Create Campaign'
+button below"</t>
+  </si>
+  <si>
+    <t>Following message shall be displayed as in yellow color
+"This campaign has been saved in Draft Mode. This campaign can be confirmed and scheduled by pressing the 'Create Campaign' button below" </t>
+  </si>
+  <si>
+    <t>id:54923</t>
+  </si>
+  <si>
+    <t>Verify the MLC campaign scenarios - Update/Edit</t>
+  </si>
+  <si>
+    <t> Verify when user selects MLC campaign in Campaign Type Contact Info section and MLC name is getting displayed </t>
+  </si>
+  <si>
+    <t> MLC name shall be displayed </t>
   </si>
 </sst>
 </file>
@@ -745,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +989,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -818,7 +1028,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -840,10 +1050,10 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -875,10 +1085,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>33</v>
@@ -891,7 +1101,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -925,10 +1135,10 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>33</v>
@@ -941,15 +1151,15 @@
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>25</v>
@@ -962,7 +1172,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
@@ -999,10 +1209,10 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>33</v>
@@ -1017,10 +1227,10 @@
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1059,7 +1269,7 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -1081,10 +1291,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1116,10 +1326,10 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>33</v>
@@ -1129,10 +1339,10 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -1143,7 +1353,7 @@
         <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -1177,10 +1387,10 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>33</v>
@@ -1193,7 +1403,7 @@
         <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -1201,7 +1411,7 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>26</v>
@@ -1238,10 +1448,10 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>33</v>
@@ -1256,10 +1466,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1298,7 +1508,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -1320,10 +1530,10 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -1355,10 +1565,10 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>33</v>
@@ -1368,10 +1578,10 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -1382,7 +1592,7 @@
         <v>18</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -1416,10 +1626,10 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>33</v>
@@ -1432,7 +1642,7 @@
         <v>23</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -1440,7 +1650,7 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>26</v>
@@ -1477,10 +1687,10 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>33</v>
@@ -1493,11 +1703,365 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213576C-118C-42BE-8F2E-3C0F8E5CC6A9}">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64" style="1" customWidth="1"/>
+    <col min="4" max="4" width="59.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EA1EB5-B96C-435B-AF55-228DB5DCC33C}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,7 +2125,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1572,7 +2136,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1580,18 +2144,18 @@
         <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1604,13 +2168,13 @@
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1618,12 +2182,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBC9AB6-1BAF-4631-BB8D-163F9EE683EF}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,7 +2259,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1706,7 +2270,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1714,10 +2278,10 @@
         <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1728,7 +2292,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1736,12 +2300,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3834F5-F8E4-432F-B054-DCFBDE612648}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,18 +2377,18 @@
         <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -1835,7 +2399,7 @@
         <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1848,10 +2412,176 @@
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
+      <c r="D19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1859,12 +2589,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C087E27-36FA-4201-A2EF-223704CA841E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,15 +2626,15 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -1912,7 +2642,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -1920,7 +2650,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -1939,54 +2669,54 @@
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2002,29 +2732,29 @@
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
@@ -2055,54 +2785,54 @@
     </row>
     <row r="21" spans="3:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="3:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
@@ -2118,21 +2848,21 @@
         <v>32</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="3:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +2870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9617CC-FEA7-4413-B6E7-804BCBCCAE12}">
   <dimension ref="A1:E41"/>
   <sheetViews>
@@ -2176,10 +2906,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2218,7 +2948,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -2240,10 +2970,10 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -2275,10 +3005,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>33</v>
@@ -2291,7 +3021,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -2325,10 +3055,10 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>33</v>
@@ -2341,7 +3071,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -2362,7 +3092,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
@@ -2386,10 +3116,10 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>33</v>
@@ -2399,13 +3129,13 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2417,10 +3147,10 @@
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2459,7 +3189,7 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -2481,10 +3211,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -2516,10 +3246,10 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>33</v>
@@ -2532,7 +3262,7 @@
         <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -2566,10 +3296,10 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>33</v>
@@ -2582,7 +3312,7 @@
         <v>23</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -2590,7 +3320,7 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>26</v>
@@ -2614,10 +3344,10 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>33</v>
@@ -2627,10 +3357,10 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>33</v>
@@ -2639,4 +3369,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F71ACB-000F-401B-BB58-60B4FC784606}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TC-RS.xlsx
+++ b/TC-RS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0FCBC0-D796-4D60-8A80-5AA65FB1FA61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820719BF-81E9-4405-8BAB-E6CD5F16C4DB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="5895" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="5895" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CampCreation" sheetId="1" r:id="rId1"/>
+    <sheet name="CampCreation" sheetId="11" r:id="rId1"/>
     <sheet name="EditCamp" sheetId="9" r:id="rId2"/>
     <sheet name="Responses" sheetId="2" r:id="rId3"/>
     <sheet name="Reports" sheetId="3" r:id="rId4"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -622,6 +622,12 @@
   </si>
   <si>
     <t> MLC name shall be displayed </t>
+  </si>
+  <si>
+    <t>Navigate to Customer Feedback</t>
+  </si>
+  <si>
+    <t>id:48166</t>
   </si>
 </sst>
 </file>
@@ -952,44 +958,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6817DE79-FB62-4535-895E-FA5F05AC2BD3}">
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.5703125" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>192</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1024,7 +1030,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -1038,33 +1044,29 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>91</v>
-      </c>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1072,73 +1074,69 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>33</v>
@@ -1148,21 +1146,23 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>33</v>
@@ -1172,85 +1172,76 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
@@ -1258,21 +1249,21 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -1280,10 +1271,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1291,80 +1282,84 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>33</v>
@@ -1374,155 +1369,152 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -1530,175 +1522,104 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" s="1" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1706,7 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213576C-118C-42BE-8F2E-3C0F8E5CC6A9}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/TC-RS.xlsx
+++ b/TC-RS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820719BF-81E9-4405-8BAB-E6CD5F16C4DB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9367EF-4251-4011-94EE-E00669D1EDAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="5895" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="5895" tabRatio="726" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CampCreation" sheetId="11" r:id="rId1"/>
@@ -14,8 +14,9 @@
     <sheet name="Reports" sheetId="3" r:id="rId4"/>
     <sheet name="CustActReport" sheetId="4" r:id="rId5"/>
     <sheet name="LivePreview&amp;Delete" sheetId="6" r:id="rId6"/>
-    <sheet name="DraftCamp" sheetId="7" r:id="rId7"/>
+    <sheet name="DraftBrand" sheetId="7" r:id="rId7"/>
     <sheet name="ProcessedCamp" sheetId="8" r:id="rId8"/>
+    <sheet name="DraftLoc" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -961,7 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6817DE79-FB62-4535-895E-FA5F05AC2BD3}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -2793,10 +2794,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9617CC-FEA7-4413-B6E7-804BCBCCAE12}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3057,234 +3058,6 @@
       </c>
       <c r="E21" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3304,4 +3077,265 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C82C7F-1130-4129-82A5-CBC538B5CC9D}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="59" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>